--- a/library/$ scrap_data/test.xlsx
+++ b/library/$ scrap_data/test.xlsx
@@ -1,35 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\PycharmProjects\CabbageJumble-aya\library\$ scrap_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800753B8-EF10-4CE6-8F0D-025F07E12848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Hyperparameters" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Results" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Test Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Hyperparameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>theda</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>theda:
+Whether it has been done yet.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>theda</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>theda:
+- Batch size (2, 4)
+- Learning rate (0.001)
+- Epoch
+- IoU threshold?
+- Seed number
+- Optimizer (Adam, SGD)
+- Momentum (
+~- Loss function (MSE, CrossEntropy) // nvm~
+- Learning Rate Scheduler (on/off)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
+  </si>
+  <si>
+    <t>LR Scheduler</t>
+  </si>
+  <si>
+    <t>IoU Threshold</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Train Acc</t>
+  </si>
+  <si>
+    <t>Train Loss</t>
+  </si>
+  <si>
+    <t>Valid Acc</t>
+  </si>
+  <si>
+    <t>Valid Loss</t>
+  </si>
+  <si>
+    <t>Test Acc</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,121 +167,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>theda</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <t>theda:
-Whether it has been done yet.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>theda</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>theda:
-- Batch size (2, 4)
-- Learning rate (0.001)
-- Epoch
-- IoU threshold?
-- Seed number
-- Optimizer (Adam, SGD)
-- Momentum (
-~- Loss function (MSE, CrossEntropy) // nvm~
-- Learning Rate Scheduler (on/off)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,58 +481,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12</v>
       </c>
     </row>
@@ -522,212 +536,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Trial</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Epochs</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Batch size</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Learning rate</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>LR Scheduler</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>IoU Threshold</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Optimizer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Momentum</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Seed</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.001</v>
+      <c r="D2">
+        <v>1E-3</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.4</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>3.14</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>69</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Trial</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Train Acc</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Train Loss</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Valid Acc</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Valid Loss</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Test Acc</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Test Loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.043</v>
+      <c r="B2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G2">
+        <v>1.0429999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>